--- a/biology/Botanique/Louvre-Lens/Louvre-Lens.xlsx
+++ b/biology/Botanique/Louvre-Lens/Louvre-Lens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Louvre-Lens est un établissement public de coopération culturelle à caractère administratif fondé par le conseil régional du Nord-Pas-de-Calais, le département du Pas-de-Calais, la communauté d'agglomération de Lens-Liévin, la ville de Lens et le musée du Louvre. Ce « deuxième Louvre » est situé à Lens dans le Pas-de-Calais. Il s'agit d'un établissement autonome, lié au musée du Louvre parisien par une convention scientifique et culturelle.
 Le musée est construit sur le site de l'ancienne fosse no 9 des mines de Lens. Le nouveau bâtiment, sous maîtrise d'ouvrage du conseil régional du Nord-Pas-de-Calais, accueille des expositions semi-permanentes représentatives de l'ensemble des collections du musée du Louvre, renouvelées régulièrement. Il accueille également des expositions temporaires de niveau national ou international. Le musée est desservi par des navettes TADAO le reliant au pôle gares toutes les 30 minutes.
@@ -513,13 +525,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce musée se déploie sur un parc de vingt hectares (parc paysager de 6 600 arbres, 26 000 arbustes et 700 vivaces, quatre hectares de prés et prairies fleuries et un hectare de pelouse rase, les anciennes voies de chemins de fer qui reliaient les puits de mine étant transformées en chemins d'accès, une vingtaine de « canapés végétaux » servant de bancs dans le périmètre du parc). Le parc a obtenu le label de jardin remarquable du ministère de la Culture en 2021[4].
-Les bâtiments ont une surface totale de 28 000 m2, dont 7 000 m2 de surface d’exposition et de réserves visitables (Grande galerie appelée « la Galerie du temps » de 3 000 m2, Galerie d’exposition temporaire de 1 800 m2 et Pavillon de verre de 1 000 m2, exposant notamment des pièces majeures venant du musée parisien, entre 600 et 800 œuvres), et 1 000 m2 abritant les réserves d’œuvres d’art[5]. Les cinq bâtiments principaux (un cube, le hall d'accueil et quatre parallélépipèdes dont les toits plats et les murs en verre, légèrement courbes, suivent les lignes naturelles du terrain[6]), reliés entre eux par une ligne continue (« la Galerie du temps » dont le sol en béton ciré et les lamelles inclinées qui apportent une lumière zénithale naturelle évitent les ombres et les reflets) sont longs et bas (six à sept mètres de hauteur), reflétant la lumière par leur structure en verre feuilleté dépoli et en panneaux de bois recouverts d'un bardage en aluminium poli et anodisé : l'édifice joue ainsi sur la sobriété et la transparence des façades dans lesquelles se reflète le parc[7]. Le rez-de-jardin est entièrement ouvert au public, tandis que les parties techniques sont situées en sous-sol[LL 1]. Les deux parvis en béton, posés sur une terre noire de terril (130 000 m3 de schistes ont été charriés en tout) où de maigres îlots de pelouse surnagent, font transition avec le parc paysager[8].
-Les expositions temporaires seront chaque année de dimension internationale, en collaboration avec de grands musées étrangers. Le hall d’accueil de 3 600 m2, six ateliers pédagogiques, un auditorium de 280 places (appelé La Scène), une médiathèque et un Centre de Ressources, des réserves (visibles et visitables en sous-sol), une librairie-boutique, une cafétéria, deux espaces de restauration rapide et un restaurant gastronomique du chef local Marc Meurin, des laboratoires­ et des bureaux ­se partagent le reste de ce musée du XXIe siècle[5].
-Le site du musée est marqué par la silhouette du stade Bollaert-Delelis et de deux grands terrils qui évoquent la pyramide de Khéops par leur hauteur identique et sont comme un rappel de la Pyramide du Louvre[9].
-Le 18 novembre 2013, le Louvre-Lens[10] reçoit le prix de l'Équerre d'argent , récompensant « le très beau travail sur les ambiances, la bonne maîtrise de la lumière et la reconversion d'un site minier en équipement culturel de premier plan »[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce musée se déploie sur un parc de vingt hectares (parc paysager de 6 600 arbres, 26 000 arbustes et 700 vivaces, quatre hectares de prés et prairies fleuries et un hectare de pelouse rase, les anciennes voies de chemins de fer qui reliaient les puits de mine étant transformées en chemins d'accès, une vingtaine de « canapés végétaux » servant de bancs dans le périmètre du parc). Le parc a obtenu le label de jardin remarquable du ministère de la Culture en 2021.
+Les bâtiments ont une surface totale de 28 000 m2, dont 7 000 m2 de surface d’exposition et de réserves visitables (Grande galerie appelée « la Galerie du temps » de 3 000 m2, Galerie d’exposition temporaire de 1 800 m2 et Pavillon de verre de 1 000 m2, exposant notamment des pièces majeures venant du musée parisien, entre 600 et 800 œuvres), et 1 000 m2 abritant les réserves d’œuvres d’art. Les cinq bâtiments principaux (un cube, le hall d'accueil et quatre parallélépipèdes dont les toits plats et les murs en verre, légèrement courbes, suivent les lignes naturelles du terrain), reliés entre eux par une ligne continue (« la Galerie du temps » dont le sol en béton ciré et les lamelles inclinées qui apportent une lumière zénithale naturelle évitent les ombres et les reflets) sont longs et bas (six à sept mètres de hauteur), reflétant la lumière par leur structure en verre feuilleté dépoli et en panneaux de bois recouverts d'un bardage en aluminium poli et anodisé : l'édifice joue ainsi sur la sobriété et la transparence des façades dans lesquelles se reflète le parc. Le rez-de-jardin est entièrement ouvert au public, tandis que les parties techniques sont situées en sous-sol[LL 1]. Les deux parvis en béton, posés sur une terre noire de terril (130 000 m3 de schistes ont été charriés en tout) où de maigres îlots de pelouse surnagent, font transition avec le parc paysager.
+Les expositions temporaires seront chaque année de dimension internationale, en collaboration avec de grands musées étrangers. Le hall d’accueil de 3 600 m2, six ateliers pédagogiques, un auditorium de 280 places (appelé La Scène), une médiathèque et un Centre de Ressources, des réserves (visibles et visitables en sous-sol), une librairie-boutique, une cafétéria, deux espaces de restauration rapide et un restaurant gastronomique du chef local Marc Meurin, des laboratoires­ et des bureaux ­se partagent le reste de ce musée du XXIe siècle.
+Le site du musée est marqué par la silhouette du stade Bollaert-Delelis et de deux grands terrils qui évoquent la pyramide de Khéops par leur hauteur identique et sont comme un rappel de la Pyramide du Louvre.
+Le 18 novembre 2013, le Louvre-Lens reçoit le prix de l'Équerre d'argent , récompensant « le très beau travail sur les ambiances, la bonne maîtrise de la lumière et la reconversion d'un site minier en équipement culturel de premier plan ».
 </t>
         </is>
       </c>
@@ -550,34 +564,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Jean-Jacques Aillagon, ministre de la Culture et de la Communication entre mai 2002 et avril 2004 [Quand ?], souhaite que les grands établissements parisiens soient décentralisés, ce qui est le cas pour le Louvre II ou le centre Pompidou-Metz. Entre Amiens, Arras, Béthune, Boulogne-sur-Mer, Calais, Lens et Valenciennes, la compétition est difficile.
-Renaud Donnedieu de Vabres, ministre de la Culture et de la Communication entre 2004 et 2007, visite les six villes candidates. Il y a une ville en moins car Béthune a souhaité se retirer de la compétition. Quatre mois plus tard, le premier ministre de l'époque, Jean-Pierre Raffarin, annonce à Lens même le 29 novembre 2004 que la ville accueillerait l'antenne du Louvre. En effet, dans la commune, plus de 20 % des actifs sont au chômage ou sous-employés, et les indicateurs sociaux et sanitaires sont très négatifs[12]. Daniel Percheron a su convaincre Jacques Chirac que le choix de Lens était le meilleur, pour rendre justice « au peuple de la mine qui a tant souffert ». Il a été soutenu dans son combat par Henri Loyrette, président-directeur du Louvre et partisan de la démocratisation de l'art[12], et aidé par trois veuves de mineurs qui avaient interpellé Renaud Donnedieu de Vabres de « façon directe et chaleureuse » lors de sa visite de Lens, gagnant depuis le surnom de « mamies du Louvre »[13].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Jacques Aillagon, ministre de la Culture et de la Communication entre mai 2002 et avril 2004 [Quand ?], souhaite que les grands établissements parisiens soient décentralisés, ce qui est le cas pour le Louvre II ou le centre Pompidou-Metz. Entre Amiens, Arras, Béthune, Boulogne-sur-Mer, Calais, Lens et Valenciennes, la compétition est difficile.
+Renaud Donnedieu de Vabres, ministre de la Culture et de la Communication entre 2004 et 2007, visite les six villes candidates. Il y a une ville en moins car Béthune a souhaité se retirer de la compétition. Quatre mois plus tard, le premier ministre de l'époque, Jean-Pierre Raffarin, annonce à Lens même le 29 novembre 2004 que la ville accueillerait l'antenne du Louvre. En effet, dans la commune, plus de 20 % des actifs sont au chômage ou sous-employés, et les indicateurs sociaux et sanitaires sont très négatifs. Daniel Percheron a su convaincre Jacques Chirac que le choix de Lens était le meilleur, pour rendre justice « au peuple de la mine qui a tant souffert ». Il a été soutenu dans son combat par Henri Loyrette, président-directeur du Louvre et partisan de la démocratisation de l'art, et aidé par trois veuves de mineurs qui avaient interpellé Renaud Donnedieu de Vabres de « façon directe et chaleureuse » lors de sa visite de Lens, gagnant depuis le surnom de « mamies du Louvre ».
 En début d'année 2005, la région Nord-Pas-de-Calais, maître d'ouvrage et principal financeur du projet lance un concours d'architecture. Six équipes d'architectes sont sélectionnées parmi les 124 candidatures. Après délibération, le jury qualifie l'équipe d'architectes composée de l'agence japonaise SANAA Kazuyo Sejima, Ryūe Nishizawa avec le bureau d'architectes-muséographes Imrey Culbert basé à New York et à Paris, spécialisé en conception de musées et galeries, ainsi que l'architecte paysagiste française Catherine Mosbach.
 Plusieurs projets sont mis en route dont la Route du Louvre. Celle-ci a pris son départ le 14 mai 2006 et est rééditée chaque année. Plusieurs personnes ont aussi eu la possibilité d'aller sur des lieux bâtis par l'entreprise SANAA et pour prendre connaissance des avancées du chantier du Louvre-Lens.
-Construction
-Le 12 novembre 2007, la région a approuvé l'avant-projet architectural définitif du musée. C'est-à-dire que les plans sont terminés et que le calendrier est fixé[14]. En 2008, l'appel d'offre est lancé pour être finalement jugé infructueux en septembre : les raisons invoquées tiennent essentiellement au dépassement de budget des entreprises ayant répondu.
-Une nouvelle consultation est relancée début 2009 pour aboutir sur un choix des entreprises en septembre 2009. La première pierre est posée le 4 décembre 2009[15] pour une inauguration prévue pour le 4 décembre 2012, trois ans plus tard.
-Financement
-Les dépenses d'investissement du Louvre-Lens sont majoritairement prises en charge par la région (60 %), avec l'Union européenne (20 % via le FEDER) mais aussi le conseil général du Pas-de-Calais (10 %) ainsi par la ville de Lens et la Communaupole (10 % pour les deux)[16]. Ces collectivités participent dans les mêmes proportions à l'investissement initial.
-Le cabinet d'architecture SANAA des japonais Kazuyo Sejima et Ryūe Nishizawa a été désigné le 26 septembre 2005 par la commission permanente du conseil régional Nord-Pas-de-Calais, maître d'ouvrage du bâtiment, pour construire le Louvre-Lens. Son coût est alors estimé à 117 millions d'euros TTC (valeur janvier 2005). La paysagiste de ce projet est Catherine Mosbach (de Mosbach Paysagistes) qui a déjà réalisé de nombreux projets tel que le canal Saint-Denis, le Jardin botanique de Bordeaux ou le jardin botanique de Monaco. Pour le développement de ce projet, SANAA s'est adjoint les architectes français Michel Lévi et Antoine Saubot du cabinet parisien EXTRA MUROS.
-L'avant-projet a été validé en mai 2007. Il se traduit par une simplification du projet (réduction des surfaces vitrées) et une augmentation du coût d'objectif qui passe à 127 millions d'euros. En février 2009, le conseil régional a voté une extension de budget de 23 millions d'euros qui seront couverts par l'Union européenne pour dix millions d'euros, par l'État français pour six millions d'euros et par le mécénat pour sept millions d'euros[17], portant le budget total à 150 millions d'euros.
-Lors de l'attribution des différents lots techniques, le budget de la construction est finalement de 83 millions d'euros au lieu des 109 millions d'euros prévus[18]. Le solde est alors réservé à l'aménagement paysager qui représente une part importante du projet architectural. Le Moniteur des travaux publics et du bâtiment, magazine spécialisé en travaux publics, évoque un coût total de 201 millions d'euros, toutes révisions comprises[19].
-Les dépenses en fonctionnement sont quant à elles estimées à quinze millions d'euros[16].
-Emplacement
-Le musée du Louvre-Lens est bâti sur le carreau de la fosse Théodore Barrois, plus connue sous le nom de fosse no 9 qui a été exploitée après deux ans de travaux[20] entre 1886 et 1980 pour son charbon par la Compagnie des mines de Lens[21],[22],[note 1]. Le site étant un peu en hauteur, il donne une vue sur les cités des environs. Le critère de l'emplacement a été décisif : la proximité des autoroutes A1, A21 et A26, la proximité de la gare de Lens desservie par le TGV. Vers 2020, le Louvre-Lens aurait dû être desservi par le tramway Artois-Gohelle, projet abandonné et remplacé par un Bus à Haut Niveau de Service.
-La zone du chantier est bien plus large que le carreau de la fosse no 9. Outre les abords immédiats, les travaux s'étendent également sur le carreau de la fosse no 9 bis, un puits d'aérage voisin, sur le territoire de Liévin[23].
-Par ailleurs, la cité pavillonnaire no 9, l'église Saint-Théodore, l'école, le logement d'instituteur, la maison d'ingénieur et la cité pavillonnaire Jeanne d'Arc ont été inscrits le 30 juin 2012 sur la liste du patrimoine mondial de l'Unesco, où ils constituent une partie du site no 63[24].
-Un cheminement piétonnier est réalisé entre la gare et le musée. Entre cette première et le pont ferroviaire, des bâtiments sont détruits pour laisser un passage suffisant[25], tandis que du pont jusqu'au musée, le terril cavalier no 68A, Cavalier du 9 de Lens[26], jusqu'alors inaccessible, est rouvert au public. À cette occasion, deux passerelles enjambent des rues[27].
-Mise en œuvre
-Le 7 octobre 2009, le conseil régional du Nord-Pas-de-Calais attribue les marchés des travaux aux sociétés Eiffage pour le gros œuvre et au groupe italien Permasteelisa pour la charpente et les façades. La SEM Adevia est confirmée dans son rôle de mandataire du conseil régional. Le 4 décembre 2009, le ministre de la culture, Frédéric Mitterrand inaugure la « Maison du Projet » du Louvre-Lens et pose la première pierre en compagnie de Jack Lang, Valérie Létard, Gervais Martel, Guy Delcourt, Henri Loyrette, Daniel Percheron et les architectes Kazuyo Sejima et Ryūe Nishizawa[28].
-En 2009, SANAA fait appel au Studio Adrien Gardère[29] pour concevoir la muséographie de tous les espaces du musée. Le Studio Adrien Gardère collabore avec Jean-Michel Sanchez et Julien Roger de On-situ, pour la conception de la médiation et des multimédia et avec les suisses D. Bruni et M. Krebs de Norm pour la signalétique et le graphisme du musée.
-En septembre 2010, les sous-sols et les fondations sont presque achevés, et le pavillon de verre est commencé.
-Bâtiments
-Inauguration
-L'inauguration a lieu le jour de la Sainte-Barbe, sainte patronne des mineurs, le 4 décembre 2012[12]. Parmi les nombreux invités, il y a François Hollande, président de la République française[30], Aurélie Filippetti, ministre de la Culture, Jean-Jacques Aillagon, Jacques Toubon, Catherine Tasca, Christine Albanel, Jack Lang, Renaud Donnedieu de Vabres, Pierre Mauroy, Lionel Jospin[31]...
-Des anciens mineurs et des cafus (femmes employées au tri du charbon) sont également présents sur le site[31].
-Après avoir participé en 2007 avec plusieurs autres sociétés musicales du bassin minier à l'opération « En fanfare aux Tuileries » annonçant dans le jardin des Tuileries à Paris l'arrivée du musée du Louvre à Lens, l'harmonie de Harnes, répondant à un appel à projets de la communaupole de Lens-Liévin, assure à l'Église Saint-Théodore le samedi 8 décembre 2012 suivant le jour de la sainte Barbe patronne des mineurs, le concert d'inauguration du Louvre-Lens. Yorick Kubiak, chef et directeur musical de l'harmonie fait appel à François Daudin Clavaud qui compose Renaissance 2012, une pièce en cinq mouvements construits en suivant l'architecture du Louvre-Lens, la durée de chaque mouvement étant proportionnelle à la taille de chacun des bâtiments, symbolisant « la renaissance d'un « sol mineur » qui a marqué l'histoire industrielle des deux siècles passés »[32],[33].
 </t>
         </is>
       </c>
@@ -603,18 +599,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fonctionnement</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xavier Dectot, directeur du Louvre-Lens[34],[35] et conservateur, indique que vingt-deux médiateurs ont été embauchés[12]. Il attend une fréquentation de 700 000 visiteurs en 2013 et de 500 000 visiteurs les années suivantes[30]. Henri Loyrette, président-directeur du Louvre, attend aussi bien un public européen que la population locale, et précise « Il y aurait pour moi deux échecs. Le premier serait que la population du Nord-Pas-de-Calais ne s'approprie pas le musée. Le second que les fidèles du Louvre n'aient pas l'envie de venir »[30].
-Le musée est ouvert tous les jours de 10 h à 18 h, sauf le mardi[36].
-Direction
-Financement
-Le budget de fonctionnement est élaboré et suivi par Catherine Ferrar, administratrice générale de l'Établissement public du Louvre-Lens[40].
-En mai 2005, les frais de fonctionnement étaient estimés à douze millions d'euros par an. En 2012, ces mêmes frais ont été estimés à quinze millions d'euros, pris en charge à hauteur de 60 % par le conseil régional, 10 % par le conseil général et 10 % par la communauté d'agglomération ; les 20 % devant provenir des recettes du musée. Le conseil d'administration s'est vu présenté par l'EPCC un budget de fonctionnement de 15,5 millions d'euros pour l'exercice 2012-2013. Le même budget est reconduit pour l'exercice 2013-2014[40].
-Les recettes, lors de la première année, s'élèvent à trois millions d'euros, dont 550 000 € provenant du mécénat de fonctionnement, et un peu moins de 2,5 millions d'euros des billets d’entrée, des expositions temporaires, de la boutique, des ventes de la cafétéria, du restaurant gastronomique, des visites guidées, de la location des salles, des catalogues d’exposition[40]... Le reste, représentant 12,5 millions d'euros, est pris en charge à hauteur de 8,7 millions d'euros par le conseil régional, et de 1,1 million d'euros chacun par le conseil général et la communauté d'agglomération. Il existe également quelques autres ressources. La gratuité de l'exposition La Galerie du temps a été reconduite en 2014, représente un manque à gagner d'un million d'euros[40]. Puis chaque année le conseil d'administration s'est reposé la question de la reconduite, qui a été perpétuée. Une étude a conclu que l'abandon de cette gratuité ferait perdre au musée 33 % de ses visiteurs, et en 2019, le Conseil d'administration a voté à l'unanimité pour le maintien durable de cette gratuité ; seules les expositions temporaires sont payantes et elles le resteront[41].
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 novembre 2007, la région a approuvé l'avant-projet architectural définitif du musée. C'est-à-dire que les plans sont terminés et que le calendrier est fixé. En 2008, l'appel d'offre est lancé pour être finalement jugé infructueux en septembre : les raisons invoquées tiennent essentiellement au dépassement de budget des entreprises ayant répondu.
+Une nouvelle consultation est relancée début 2009 pour aboutir sur un choix des entreprises en septembre 2009. La première pierre est posée le 4 décembre 2009 pour une inauguration prévue pour le 4 décembre 2012, trois ans plus tard.
 </t>
         </is>
       </c>
@@ -640,12 +637,258 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Financement</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dépenses d'investissement du Louvre-Lens sont majoritairement prises en charge par la région (60 %), avec l'Union européenne (20 % via le FEDER) mais aussi le conseil général du Pas-de-Calais (10 %) ainsi par la ville de Lens et la Communaupole (10 % pour les deux). Ces collectivités participent dans les mêmes proportions à l'investissement initial.
+Le cabinet d'architecture SANAA des japonais Kazuyo Sejima et Ryūe Nishizawa a été désigné le 26 septembre 2005 par la commission permanente du conseil régional Nord-Pas-de-Calais, maître d'ouvrage du bâtiment, pour construire le Louvre-Lens. Son coût est alors estimé à 117 millions d'euros TTC (valeur janvier 2005). La paysagiste de ce projet est Catherine Mosbach (de Mosbach Paysagistes) qui a déjà réalisé de nombreux projets tel que le canal Saint-Denis, le Jardin botanique de Bordeaux ou le jardin botanique de Monaco. Pour le développement de ce projet, SANAA s'est adjoint les architectes français Michel Lévi et Antoine Saubot du cabinet parisien EXTRA MUROS.
+L'avant-projet a été validé en mai 2007. Il se traduit par une simplification du projet (réduction des surfaces vitrées) et une augmentation du coût d'objectif qui passe à 127 millions d'euros. En février 2009, le conseil régional a voté une extension de budget de 23 millions d'euros qui seront couverts par l'Union européenne pour dix millions d'euros, par l'État français pour six millions d'euros et par le mécénat pour sept millions d'euros, portant le budget total à 150 millions d'euros.
+Lors de l'attribution des différents lots techniques, le budget de la construction est finalement de 83 millions d'euros au lieu des 109 millions d'euros prévus. Le solde est alors réservé à l'aménagement paysager qui représente une part importante du projet architectural. Le Moniteur des travaux publics et du bâtiment, magazine spécialisé en travaux publics, évoque un coût total de 201 millions d'euros, toutes révisions comprises.
+Les dépenses en fonctionnement sont quant à elles estimées à quinze millions d'euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Emplacement</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée du Louvre-Lens est bâti sur le carreau de la fosse Théodore Barrois, plus connue sous le nom de fosse no 9 qui a été exploitée après deux ans de travaux entre 1886 et 1980 pour son charbon par la Compagnie des mines de Lens[note 1]. Le site étant un peu en hauteur, il donne une vue sur les cités des environs. Le critère de l'emplacement a été décisif : la proximité des autoroutes A1, A21 et A26, la proximité de la gare de Lens desservie par le TGV. Vers 2020, le Louvre-Lens aurait dû être desservi par le tramway Artois-Gohelle, projet abandonné et remplacé par un Bus à Haut Niveau de Service.
+La zone du chantier est bien plus large que le carreau de la fosse no 9. Outre les abords immédiats, les travaux s'étendent également sur le carreau de la fosse no 9 bis, un puits d'aérage voisin, sur le territoire de Liévin.
+Par ailleurs, la cité pavillonnaire no 9, l'église Saint-Théodore, l'école, le logement d'instituteur, la maison d'ingénieur et la cité pavillonnaire Jeanne d'Arc ont été inscrits le 30 juin 2012 sur la liste du patrimoine mondial de l'Unesco, où ils constituent une partie du site no 63.
+Un cheminement piétonnier est réalisé entre la gare et le musée. Entre cette première et le pont ferroviaire, des bâtiments sont détruits pour laisser un passage suffisant, tandis que du pont jusqu'au musée, le terril cavalier no 68A, Cavalier du 9 de Lens, jusqu'alors inaccessible, est rouvert au public. À cette occasion, deux passerelles enjambent des rues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Mise en œuvre</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 7 octobre 2009, le conseil régional du Nord-Pas-de-Calais attribue les marchés des travaux aux sociétés Eiffage pour le gros œuvre et au groupe italien Permasteelisa pour la charpente et les façades. La SEM Adevia est confirmée dans son rôle de mandataire du conseil régional. Le 4 décembre 2009, le ministre de la culture, Frédéric Mitterrand inaugure la « Maison du Projet » du Louvre-Lens et pose la première pierre en compagnie de Jack Lang, Valérie Létard, Gervais Martel, Guy Delcourt, Henri Loyrette, Daniel Percheron et les architectes Kazuyo Sejima et Ryūe Nishizawa.
+En 2009, SANAA fait appel au Studio Adrien Gardère pour concevoir la muséographie de tous les espaces du musée. Le Studio Adrien Gardère collabore avec Jean-Michel Sanchez et Julien Roger de On-situ, pour la conception de la médiation et des multimédia et avec les suisses D. Bruni et M. Krebs de Norm pour la signalétique et le graphisme du musée.
+En septembre 2010, les sous-sols et les fondations sont presque achevés, et le pavillon de verre est commencé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Inauguration</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inauguration a lieu le jour de la Sainte-Barbe, sainte patronne des mineurs, le 4 décembre 2012. Parmi les nombreux invités, il y a François Hollande, président de la République française, Aurélie Filippetti, ministre de la Culture, Jean-Jacques Aillagon, Jacques Toubon, Catherine Tasca, Christine Albanel, Jack Lang, Renaud Donnedieu de Vabres, Pierre Mauroy, Lionel Jospin...
+Des anciens mineurs et des cafus (femmes employées au tri du charbon) sont également présents sur le site.
+Après avoir participé en 2007 avec plusieurs autres sociétés musicales du bassin minier à l'opération « En fanfare aux Tuileries » annonçant dans le jardin des Tuileries à Paris l'arrivée du musée du Louvre à Lens, l'harmonie de Harnes, répondant à un appel à projets de la communaupole de Lens-Liévin, assure à l'Église Saint-Théodore le samedi 8 décembre 2012 suivant le jour de la sainte Barbe patronne des mineurs, le concert d'inauguration du Louvre-Lens. Yorick Kubiak, chef et directeur musical de l'harmonie fait appel à François Daudin Clavaud qui compose Renaissance 2012, une pièce en cinq mouvements construits en suivant l'architecture du Louvre-Lens, la durée de chaque mouvement étant proportionnelle à la taille de chacun des bâtiments, symbolisant « la renaissance d'un « sol mineur » qui a marqué l'histoire industrielle des deux siècles passés »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xavier Dectot, directeur du Louvre-Lens, et conservateur, indique que vingt-deux médiateurs ont été embauchés. Il attend une fréquentation de 700 000 visiteurs en 2013 et de 500 000 visiteurs les années suivantes. Henri Loyrette, président-directeur du Louvre, attend aussi bien un public européen que la population locale, et précise « Il y aurait pour moi deux échecs. Le premier serait que la population du Nord-Pas-de-Calais ne s'approprie pas le musée. Le second que les fidèles du Louvre n'aient pas l'envie de venir ».
+Le musée est ouvert tous les jours de 10 h à 18 h, sauf le mardi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Financement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le budget de fonctionnement est élaboré et suivi par Catherine Ferrar, administratrice générale de l'Établissement public du Louvre-Lens.
+En mai 2005, les frais de fonctionnement étaient estimés à douze millions d'euros par an. En 2012, ces mêmes frais ont été estimés à quinze millions d'euros, pris en charge à hauteur de 60 % par le conseil régional, 10 % par le conseil général et 10 % par la communauté d'agglomération ; les 20 % devant provenir des recettes du musée. Le conseil d'administration s'est vu présenté par l'EPCC un budget de fonctionnement de 15,5 millions d'euros pour l'exercice 2012-2013. Le même budget est reconduit pour l'exercice 2013-2014.
+Les recettes, lors de la première année, s'élèvent à trois millions d'euros, dont 550 000 € provenant du mécénat de fonctionnement, et un peu moins de 2,5 millions d'euros des billets d’entrée, des expositions temporaires, de la boutique, des ventes de la cafétéria, du restaurant gastronomique, des visites guidées, de la location des salles, des catalogues d’exposition... Le reste, représentant 12,5 millions d'euros, est pris en charge à hauteur de 8,7 millions d'euros par le conseil régional, et de 1,1 million d'euros chacun par le conseil général et la communauté d'agglomération. Il existe également quelques autres ressources. La gratuité de l'exposition La Galerie du temps a été reconduite en 2014, représente un manque à gagner d'un million d'euros. Puis chaque année le conseil d'administration s'est reposé la question de la reconduite, qui a été perpétuée. Une étude a conclu que l'abandon de cette gratuité ferait perdre au musée 33 % de ses visiteurs, et en 2019, le Conseil d'administration a voté à l'unanimité pour le maintien durable de cette gratuité ; seules les expositions temporaires sont payantes et elles le resteront.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louvre-Lens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Louvre-Lens compte trois espaces d'expositions principaux : la Grande galerie, le Pavillon de verre et la Galerie des expositions temporaires[42]. Diverses expositions sont organisées dans ces espaces.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Louvre-Lens compte trois espaces d'expositions principaux : la Grande galerie, le Pavillon de verre et la Galerie des expositions temporaires. Diverses expositions sont organisées dans ces espaces.
 </t>
         </is>
       </c>
